--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1095,6 +1095,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2098,6 +2103,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2251,6 +2261,11 @@
           <t>Interview-Classics</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3230,6 +3245,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4146,6 +4166,11 @@
       <c r="C215" t="inlineStr">
         <is>
           <t>Cloning + Alien</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -772,6 +772,11 @@
           <t>Triplets &amp; Revision</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2368,6 +2373,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2487,6 +2497,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2504,6 +2519,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2949,6 +2969,11 @@
       <c r="C144" t="inlineStr">
         <is>
           <t>BST Kth &amp; Iterator</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -738,6 +738,11 @@
           <t>Product + Sliding Window</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2130,6 +2135,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2249,6 +2259,11 @@
           <t>Sliding Window</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2818,6 +2833,11 @@
           <t>Construction</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2867,6 +2887,11 @@
       <c r="C138" t="inlineStr">
         <is>
           <t>Construction</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1773,6 +1773,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2174,6 +2179,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2444,6 +2454,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2928,6 +2943,11 @@
           <t>Special Topics</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3910,6 +3930,11 @@
       <c r="C197" t="inlineStr">
         <is>
           <t>Graphs Traversals</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -704,6 +704,11 @@
           <t>Prefix Sum / XOR</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1331,6 +1336,11 @@
           <t>Expression Evaluation</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1812,6 +1822,11 @@
           <t>Cycle &amp; Palindrome</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2033,6 +2048,11 @@
           <t>Mix &amp; Test</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3211,6 +3231,11 @@
       <c r="C155" t="inlineStr">
         <is>
           <t>Advanced Trees</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -687,6 +687,11 @@
           <t>Prefix Sum / XOR</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1268,6 +1273,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1980,6 +1990,11 @@
           <t>Advanced Pointers</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2014,6 +2029,11 @@
           <t>Mix &amp; Test</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2399,6 +2419,11 @@
       <c r="C109" t="inlineStr">
         <is>
           <t>Greedy Stack</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1205,6 +1205,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1385,6 +1390,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1854,6 +1864,11 @@
           <t>Cycle &amp; Palindrome</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2124,6 +2139,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2716,6 +2736,11 @@
       <c r="C125" t="inlineStr">
         <is>
           <t>Tree Properties</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -962,6 +962,11 @@
           <t>Advanced Patterns</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1047,6 +1052,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2373,6 +2383,11 @@
           <t>Interview-Classics</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3463,6 +3478,11 @@
           <t>Robbery &amp; Colors</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4129,6 +4149,11 @@
       <c r="C204" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -826,6 +826,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1835,6 +1840,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2405,6 +2415,11 @@
           <t>Interview-Classics</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2916,6 +2931,11 @@
           <t>LCA &amp; Search</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3668,6 +3688,11 @@
       <c r="C176" t="inlineStr">
         <is>
           <t>Grid Problems</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1388,6 +1388,11 @@
           <t>Expression Evaluation</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1991,6 +1996,11 @@
           <t>Group Reversal</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3070,6 +3080,11 @@
           <t>Special Topics</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3712,6 +3727,11 @@
           <t>Subset &amp; Partition</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4072,6 +4092,11 @@
       <c r="C198" t="inlineStr">
         <is>
           <t>Graphs Traversals</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2615,6 +2615,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3299,6 +3304,11 @@
           <t>Word Search Variants</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3389,6 +3399,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3851,6 +3866,11 @@
           <t>Knapsack</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4182,6 +4202,11 @@
       <c r="C203" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -899,6 +899,11 @@
           <t>Rotation &amp; Merge</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1040,6 +1045,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2325,6 +2335,11 @@
           <t>Sliding Window</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2732,6 +2747,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3105,6 +3125,11 @@
       <c r="C142" t="inlineStr">
         <is>
           <t>Special Topics</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -614,6 +614,11 @@
           <t>Frequency &amp; Majority</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1527,6 +1532,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2028,6 +2038,11 @@
           <t>Advanced Pointers</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4487,6 +4502,11 @@
           <t>Shortest Paths</t>
         </is>
       </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4536,6 +4556,11 @@
       <c r="C220" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1498,6 +1498,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2862,6 +2867,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3081,6 +3091,11 @@
           <t>Special Topics</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3254,6 +3269,11 @@
           <t>Serialize + Subtree</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4337,6 +4357,11 @@
       <c r="C208" t="inlineStr">
         <is>
           <t>Advanced BFS/DFS</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -870,6 +870,11 @@
           <t>2D Matrix Basics</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1291,6 +1296,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1831,6 +1841,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3712,6 +3727,11 @@
           <t>Subsequences</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4615,6 +4635,11 @@
       <c r="C222" t="inlineStr">
         <is>
           <t>Revision</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -775,6 +775,11 @@
           <t>Triplets &amp; Revision</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1133,6 +1138,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1968,6 +1978,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4087,6 +4102,11 @@
           <t>Design &amp; Greedy</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4343,6 +4363,11 @@
       <c r="C206" t="inlineStr">
         <is>
           <t>Islands + Components</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1367,6 +1367,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1698,6 +1703,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2763,6 +2773,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4348,6 +4363,11 @@
           <t>Islands + Components</t>
         </is>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4592,6 +4612,11 @@
       <c r="C218" t="inlineStr">
         <is>
           <t>Shortest Paths</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -541,6 +541,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1742,6 +1747,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1810,6 +1820,11 @@
           <t>Linked Lists Basics</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3706,6 +3721,11 @@
           <t>Path + Decode</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3811,6 +3831,11 @@
       <c r="C175" t="inlineStr">
         <is>
           <t>Grid Problems</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -524,6 +524,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -902,6 +907,11 @@
           <t>2D Matrix Basics</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -958,6 +968,11 @@
           <t>Greedy Stock</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2688,6 +2703,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3668,6 +3688,11 @@
       <c r="C166" t="inlineStr">
         <is>
           <t>Robbery &amp; Colors</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -829,6 +829,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2040,6 +2045,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2791,6 +2801,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3298,6 +3313,11 @@
           <t>BST Kth &amp; Iterator</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4063,6 +4083,11 @@
       <c r="C186" t="inlineStr">
         <is>
           <t>Advanced</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -507,6 +507,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1643,6 +1648,11 @@
           <t>Binary Search Advanced</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1711,6 +1721,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2845,6 +2860,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3540,6 +3560,11 @@
       <c r="C157" t="inlineStr">
         <is>
           <t>Advanced</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2577,6 +2577,11 @@
           <t>Greedy Stack</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2904,6 +2909,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3038,6 +3048,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3545,6 +3560,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3967,6 +3987,11 @@
       <c r="C178" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -751,6 +751,11 @@
           <t>Product + Sliding Window</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1263,6 +1268,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1319,6 +1329,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2599,6 +2614,11 @@
           <t>Greedy Stack</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3102,6 +3122,11 @@
       <c r="C133" t="inlineStr">
         <is>
           <t>LCA &amp; Search</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1061,6 +1061,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2036,6 +2041,11 @@
           <t>Cycle &amp; Palindrome</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3051,6 +3061,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3707,6 +3722,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4662,6 +4682,11 @@
       <c r="C213" t="inlineStr">
         <is>
           <t>Word Ladder</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1400,6 +1400,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1690,6 +1695,11 @@
           <t>Binary Search Advanced</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2497,6 +2507,11 @@
           <t>Sliding Window</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3427,6 +3442,11 @@
           <t>Serialize + Subtree</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4105,6 +4125,11 @@
       <c r="C182" t="inlineStr">
         <is>
           <t>LCS &amp; Edit</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1144,6 +1144,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1907,6 +1912,11 @@
           <t>Linked Lists Basics</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3686,6 +3696,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4351,6 +4366,11 @@
           <t>Bonus Problems</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4461,6 +4481,11 @@
       <c r="C200" t="inlineStr">
         <is>
           <t>Cycle (Directed)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1227,6 +1227,11 @@
           <t>Strings Sliding Window I</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2322,6 +2327,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3718,6 +3728,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3986,6 +4001,11 @@
           <t>Subsequences</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4308,6 +4328,11 @@
       <c r="C191" t="inlineStr">
         <is>
           <t>Design &amp; Greedy</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1844,6 +1844,11 @@
           <t>Allocation Problems</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1939,6 +1944,11 @@
           <t>Linked Lists Basics</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2271,6 +2281,11 @@
           <t>Mix &amp; Test</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3079,6 +3094,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4723,6 +4743,11 @@
       <c r="C211" t="inlineStr">
         <is>
           <t>Coloring &amp; Flood Fill</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -573,6 +573,11 @@
           <t>Searching Pairs</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +695,11 @@
           <t>Subarray with Given Sum</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3831,6 +3841,11 @@
           <t>Coin Change</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4243,6 +4258,11 @@
           <t>Matrix/Graph Paths</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4509,6 +4529,11 @@
       <c r="C199" t="inlineStr">
         <is>
           <t>Cycle (Undirected)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1581,6 +1581,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1676,6 +1681,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2396,6 +2406,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3592,6 +3607,11 @@
           <t>Trie</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3822,6 +3842,11 @@
       <c r="C163" t="inlineStr">
         <is>
           <t>Coin Change</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1625,6 +1625,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2162,6 +2167,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3429,6 +3439,11 @@
           <t>BST Kth &amp; Iterator</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4600,6 +4615,11 @@
           <t>Cycle (Directed)</t>
         </is>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4615,6 +4635,11 @@
       <c r="C202" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1054,6 +1054,11 @@
           <t>Advanced Patterns</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1276,6 +1281,11 @@
           <t>Strings Sliding Window I</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1337,6 +1347,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1464,6 +1479,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4184,6 +4204,11 @@
       <c r="C179" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -4040,6 +4040,11 @@
           <t>Subsequences</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4418,6 +4423,11 @@
           <t>Streaming &amp; Median</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4535,6 +4545,11 @@
           <t>Bonus Problems</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4811,6 +4826,11 @@
           <t>Advanced BFS/DFS</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5009,6 +5029,11 @@
       <c r="C219" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2558,6 +2558,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2851,6 +2856,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4233,6 +4243,11 @@
           <t>Subset &amp; Partition</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4787,6 +4802,11 @@
           <t>Islands + Components</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4924,6 +4944,11 @@
       <c r="C214" t="inlineStr">
         <is>
           <t>Word Ladder</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1181,6 +1181,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1850,6 +1855,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1911,6 +1921,11 @@
           <t>Allocation Problems</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3342,6 +3357,11 @@
           <t>Construction</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4092,6 +4112,11 @@
       <c r="C173" t="inlineStr">
         <is>
           <t>Subsequences</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -893,6 +893,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2224,6 +2229,11 @@
           <t>Group Reversal</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3091,6 +3101,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3340,6 +3355,11 @@
           <t>Construction</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3614,6 +3634,11 @@
       <c r="C149" t="inlineStr">
         <is>
           <t>Segment Trees</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -617,6 +617,11 @@
           <t>Searching Pairs</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1594,6 +1599,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3658,6 +3668,11 @@
           <t>Segment Trees</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4315,6 +4330,11 @@
           <t>LCS &amp; Edit</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4469,6 +4489,11 @@
       <c r="C189" t="inlineStr">
         <is>
           <t>Streaming &amp; Median</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1025,6 +1025,11 @@
           <t>Greedy Stock</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1582,6 +1587,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1709,6 +1719,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3756,6 +3771,11 @@
           <t>Word Search Variants</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4091,6 +4111,11 @@
       <c r="C170" t="inlineStr">
         <is>
           <t>Path + Decode</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1113,6 +1113,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1973,6 +1978,11 @@
           <t>Allocation Problems</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2850,6 +2860,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3297,6 +3312,11 @@
           <t>LCA &amp; Search</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3598,6 +3618,11 @@
       <c r="C146" t="inlineStr">
         <is>
           <t>Serialize + Subtree</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2562,6 +2562,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2601,6 +2606,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4099,6 +4109,11 @@
           <t>Path + Decode</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4507,6 +4522,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4627,6 +4647,11 @@
       <c r="C193" t="inlineStr">
         <is>
           <t>Design &amp; Greedy</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -661,6 +661,11 @@
           <t>Frequency &amp; Majority</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1812,6 +1817,11 @@
           <t>Binary Search Advanced</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2352,6 +2362,11 @@
           <t>Advanced Pointers</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4439,6 +4454,11 @@
           <t>Knapsack</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5055,6 +5075,11 @@
       <c r="C212" t="inlineStr">
         <is>
           <t>Coloring &amp; Flood Fill</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1294,6 +1294,11 @@
           <t>Strings Sliding Window I</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2450,6 +2455,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2907,6 +2917,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4564,6 +4579,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4711,6 +4731,11 @@
       <c r="C195" t="inlineStr">
         <is>
           <t>Bonus Problems</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -991,6 +991,11 @@
           <t>Rotation &amp; Merge</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1844,6 +1849,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3335,6 +3345,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4122,6 +4137,11 @@
           <t>Path + Decode</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5298,6 +5318,11 @@
       <c r="C221" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -5083,6 +5083,11 @@
           <t>Advanced BFS/DFS</t>
         </is>
       </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1311,6 +1311,11 @@
           <t>Expression Evaluation</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2217,6 +2222,11 @@
           <t>Sliding Window</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2861,6 +2871,11 @@
       <c r="C140" t="inlineStr">
         <is>
           <t>Special Topics</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1967,6 +1967,11 @@
           <t>Advanced Pointers</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2737,6 +2742,11 @@
           <t>LCA &amp; Search</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3629,6 +3639,11 @@
       <c r="C184" t="inlineStr">
         <is>
           <t>Knapsack</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1277,6 +1277,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2436,6 +2441,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3780,6 +3790,11 @@
       <c r="C192" t="inlineStr">
         <is>
           <t>Design &amp; Greedy</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1299,6 +1299,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2373,6 +2378,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2806,6 +2816,11 @@
       <c r="C135" t="inlineStr">
         <is>
           <t>Construction</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1209,6 +1209,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2969,6 +2974,11 @@
           <t>BST Kth &amp; Iterator</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4303,6 +4313,11 @@
       <c r="C221" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2682,6 +2682,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3217,6 +3222,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4041,6 +4051,11 @@
       <c r="C205" t="inlineStr">
         <is>
           <t>Islands + Components</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -575,6 +575,11 @@
           <t>Searching Pairs</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3482,6 +3487,11 @@
           <t>Subsequences</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4277,6 +4287,11 @@
       <c r="C218" t="inlineStr">
         <is>
           <t>Shortest Paths</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2500,6 +2500,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3718,6 +3723,11 @@
           <t>Matrix/Graph Paths</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4117,6 +4127,11 @@
       <c r="C208" t="inlineStr">
         <is>
           <t>Advanced BFS/DFS</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -784,6 +784,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1061,6 +1066,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2301,6 +2311,11 @@
       <c r="C105" t="inlineStr">
         <is>
           <t>Interview-Classics</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1873,6 +1873,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3935,6 +3940,11 @@
           <t>Bonus Problems</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4300,6 +4310,11 @@
       <c r="C217" t="inlineStr">
         <is>
           <t>Shortest Paths</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1805,6 +1805,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2194,6 +2199,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3634,6 +3644,11 @@
       <c r="C179" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1190,6 +1190,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2552,6 +2557,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4369,6 +4379,11 @@
       <c r="C219" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2187,6 +2187,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3221,6 +3226,11 @@
           <t>Word Search Variants</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4199,6 +4209,11 @@
       <c r="C209" t="inlineStr">
         <is>
           <t>Advanced BFS/DFS</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1832,6 +1832,11 @@
           <t>Cycle &amp; Palindrome</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2411,6 +2416,11 @@
           <t>Greedy Stack</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3579,6 +3589,11 @@
       <c r="C174" t="inlineStr">
         <is>
           <t>Subsequences</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -976,6 +976,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2056,6 +2061,11 @@
           <t>Mix &amp; Test</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3200,6 +3210,11 @@
       <c r="C152" t="inlineStr">
         <is>
           <t>Trie</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2246,6 +2246,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2487,6 +2492,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4200,6 +4210,11 @@
       <c r="C207" t="inlineStr">
         <is>
           <t>Islands + Components</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2168,6 +2168,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2514,6 +2519,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3687,6 +3697,11 @@
       <c r="C178" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1509,6 +1509,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2743,6 +2748,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4084,6 +4094,11 @@
       <c r="C199" t="inlineStr">
         <is>
           <t>Cycle (Undirected)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -874,6 +874,11 @@
           <t>Rotation &amp; Merge</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1093,6 +1098,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4408,6 +4418,11 @@
       <c r="C216" t="inlineStr">
         <is>
           <t>Cloning + Alien</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -3150,6 +3150,11 @@
           <t>Serialize + Subtree</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3184,6 +3189,11 @@
           <t>Serialize + Subtree</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3435,6 +3445,11 @@
       <c r="C162" t="inlineStr">
         <is>
           <t>Recurrence Basics</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1171,6 +1171,11 @@
           <t>Strings Sliding Window I</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1400,6 +1405,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3922,6 +3932,11 @@
       <c r="C188" t="inlineStr">
         <is>
           <t>Advanced</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2354,6 +2354,11 @@
           <t>Sliding Window</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2700,6 +2705,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3511,6 +3521,11 @@
       <c r="C165" t="inlineStr">
         <is>
           <t>Robbery &amp; Colors</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2946,6 +2946,11 @@
           <t>LCA &amp; Search</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3265,6 +3270,11 @@
           <t>Trie</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3930,6 +3940,11 @@
       <c r="C187" t="inlineStr">
         <is>
           <t>Advanced</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -507,6 +507,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3080,6 +3085,11 @@
           <t>Special Topics</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3251,6 +3261,11 @@
       <c r="C150" t="inlineStr">
         <is>
           <t>Segment Trees</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1517,6 +1517,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1726,6 +1731,11 @@
           <t>Allocation Problems</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3512,6 +3522,11 @@
       <c r="C163" t="inlineStr">
         <is>
           <t>Coin Change</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1821,6 +1821,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3022,6 +3027,11 @@
           <t>Construction</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3651,6 +3661,11 @@
       <c r="C170" t="inlineStr">
         <is>
           <t>Path + Decode</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -862,6 +862,11 @@
           <t>2D Matrix Basics</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -935,6 +940,11 @@
           <t>Greedy Stock</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3722,6 +3732,11 @@
       <c r="C173" t="inlineStr">
         <is>
           <t>Subsequences</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -670,6 +670,11 @@
           <t>Subarray with Given Sum</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1074,6 +1079,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1603,6 +1613,11 @@
       <c r="C61" t="inlineStr">
         <is>
           <t>Binary Search Advanced</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2638,6 +2638,11 @@
           <t>Trees &amp; BSTs Traversals</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3252,6 +3257,11 @@
           <t>Serialize + Subtree</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3289,6 +3299,11 @@
       <c r="C149" t="inlineStr">
         <is>
           <t>Segment Trees</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1218,6 +1218,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2850,6 +2855,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3952,6 +3962,11 @@
       <c r="C183" t="inlineStr">
         <is>
           <t>Knapsack</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2899,6 +2899,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2950,6 +2955,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3048,6 +3058,11 @@
       <c r="C136" t="inlineStr">
         <is>
           <t>Construction</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -529,6 +529,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -546,6 +551,11 @@
           <t>Core Arrays + Subarrays</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1160,6 +1170,11 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>Strings Sliding Window I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1759,6 +1759,11 @@
           <t>Allocation Problems</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3241,6 +3246,11 @@
           <t>BST Kth &amp; Iterator</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4058,6 +4068,11 @@
       <c r="C186" t="inlineStr">
         <is>
           <t>Advanced</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1194,6 +1194,11 @@
           <t>Strings Sliding Window I</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1433,6 +1438,11 @@
           <t>Expression Evaluation</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4297,6 +4307,11 @@
       <c r="C198" t="inlineStr">
         <is>
           <t>Graphs Traversals</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -921,6 +921,11 @@
           <t>Rotation &amp; Merge</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3729,6 +3734,11 @@
           <t>Path + Decode</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4402,6 +4412,11 @@
       <c r="C203" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2059,6 +2059,11 @@
           <t>Group Reversal</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3566,6 +3571,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4473,6 +4483,11 @@
       <c r="C206" t="inlineStr">
         <is>
           <t>Islands + Components</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2042,6 +2042,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3805,6 +3810,11 @@
           <t>Subsequences</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4639,6 +4649,11 @@
       <c r="C214" t="inlineStr">
         <is>
           <t>Word Ladder</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2086,6 +2086,11 @@
           <t>Group Reversal</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2254,6 +2259,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3462,6 +3472,11 @@
       <c r="C153" t="inlineStr">
         <is>
           <t>Word Search Variants</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2403,6 +2403,11 @@
           <t>NGE Patterns</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3930,6 +3935,11 @@
           <t>Grid Problems</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4825,6 +4835,11 @@
       <c r="C222" t="inlineStr">
         <is>
           <t>Revision</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -702,6 +702,11 @@
           <t>Prefix Sum / XOR</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1504,6 +1509,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1833,6 +1843,11 @@
       <c r="C71" t="inlineStr">
         <is>
           <t>Linked Lists Basics</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1082,6 +1082,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1867,6 +1872,11 @@
           <t>Linked Lists Basics</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4621,6 +4631,11 @@
       <c r="C210" t="inlineStr">
         <is>
           <t>Advanced BFS/DFS</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -573,6 +573,11 @@
           <t>Searching Pairs</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2867,6 +2872,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3775,6 +3785,11 @@
       <c r="C167" t="inlineStr">
         <is>
           <t>Path + Decode</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -668,6 +668,11 @@
           <t>Subarray with Given Sum</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -797,6 +802,11 @@
           <t>Triplets &amp; Revision</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4480,6 +4490,11 @@
       <c r="C202" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -734,6 +734,11 @@
           <t>Prefix Sum / XOR</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2248,6 +2253,11 @@
           <t>Mix &amp; Test</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2463,6 +2473,11 @@
       <c r="C101" t="inlineStr">
         <is>
           <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1024,6 +1024,11 @@
           <t>Advanced Patterns</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2292,6 +2297,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4354,6 +4364,11 @@
       <c r="C194" t="inlineStr">
         <is>
           <t>Bonus Problems</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1322,6 +1322,11 @@
           <t>Strings Sliding Window II</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2607,6 +2612,11 @@
           <t>Greedy Stack</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4891,6 +4901,11 @@
       <c r="C220" t="inlineStr">
         <is>
           <t>Hard Practice</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2556,6 +2556,11 @@
           <t>Interview-Classics</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3815,6 +3820,11 @@
           <t>Robbery &amp; Colors</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4357,6 +4367,11 @@
       <c r="C193" t="inlineStr">
         <is>
           <t>Design &amp; Greedy</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2385,6 +2385,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4013,6 +4018,11 @@
           <t>Grid Problems</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4128,6 +4138,11 @@
       <c r="C181" t="inlineStr">
         <is>
           <t>LCS &amp; Edit</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1751,6 +1751,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2871,6 +2876,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3889,6 +3899,11 @@
       <c r="C169" t="inlineStr">
         <is>
           <t>Path + Decode</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2351,6 +2351,11 @@
           <t>Queue &amp; Eval</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4177,6 +4182,11 @@
           <t>LCS &amp; Edit</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4341,6 +4351,11 @@
       <c r="C190" t="inlineStr">
         <is>
           <t>Streaming &amp; Median</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2981,6 +2981,11 @@
           <t>Tree Properties</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3628,6 +3633,11 @@
           <t>Advanced Trees</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4141,6 +4151,11 @@
       <c r="C180" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1383,6 +1383,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1400,6 +1405,11 @@
           <t>String Building + Greedy</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1732,6 +1742,11 @@
       <c r="C63" t="inlineStr">
         <is>
           <t>K-th &amp; Median</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -2100,6 +2100,11 @@
           <t>Arithmetic + Reordering</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3106,6 +3111,11 @@
           <t>Balance &amp; Mirror</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4105,6 +4115,11 @@
       <c r="C177" t="inlineStr">
         <is>
           <t>Subset &amp; Partition</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -885,6 +885,11 @@
           <t>2D Matrix Basics</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2674,6 +2679,11 @@
           <t>Greedy Stack</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3441,6 +3451,11 @@
       <c r="C145" t="inlineStr">
         <is>
           <t>BST Kth &amp; Iterator</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1693,6 +1693,11 @@
           <t>Binary Search Advanced</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3790,6 +3795,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4516,6 +4526,11 @@
       <c r="C195" t="inlineStr">
         <is>
           <t>Bonus Problems</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1371,6 +1371,11 @@
           <t>Strings Stack + Pattern Matching</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2320,6 +2325,11 @@
           <t>Stack Basics</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4892,6 +4902,11 @@
       <c r="C213" t="inlineStr">
         <is>
           <t>Word Ladder</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -617,6 +617,11 @@
           <t>Searching Pairs</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -756,6 +761,11 @@
           <t>Product + Sliding Window</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2074,6 +2084,11 @@
       <c r="C79" t="inlineStr">
         <is>
           <t>Cycle &amp; Palindrome</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -656,6 +656,11 @@
           <t>Frequency &amp; Majority</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3234,6 +3239,11 @@
           <t>LCA &amp; Search</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4961,6 +4971,11 @@
       <c r="C215" t="inlineStr">
         <is>
           <t>Cloning + Alien</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -3349,6 +3349,11 @@
           <t>Construction</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3813,6 +3818,11 @@
           <t>Recurrence Basics</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4910,6 +4920,11 @@
       <c r="C212" t="inlineStr">
         <is>
           <t>Coloring &amp; Flood Fill</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1835,6 +1835,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3029,6 +3034,11 @@
           <t>Trees &amp; BSTs Views</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4615,6 +4625,11 @@
       <c r="C197" t="inlineStr">
         <is>
           <t>Graphs Traversals</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1601,6 +1601,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2018,6 +2023,11 @@
           <t>Deletion &amp; Intersection</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4459,6 +4469,11 @@
       <c r="C189" t="inlineStr">
         <is>
           <t>Streaming &amp; Median</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -883,6 +883,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4708,6 +4713,11 @@
           <t>Cycle (Directed)</t>
         </is>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4933,6 +4943,11 @@
       <c r="C211" t="inlineStr">
         <is>
           <t>Coloring &amp; Flood Fill</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1767,6 +1767,11 @@
           <t>Binary Search Advanced</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2094,6 +2099,11 @@
           <t>Cycle &amp; Palindrome</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3929,6 +3939,11 @@
       <c r="C164" t="inlineStr">
         <is>
           <t>Coin Change</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -3406,6 +3406,11 @@
           <t>Special Topics</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3814,6 +3819,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4748,6 +4758,11 @@
       <c r="C201" t="inlineStr">
         <is>
           <t>Cycle (Directed)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -788,6 +788,11 @@
           <t>Product + Sliding Window</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1833,6 +1838,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2312,6 +2322,11 @@
       <c r="C88" t="inlineStr">
         <is>
           <t>Mix &amp; Test</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1882,6 +1882,11 @@
           <t>K-th &amp; Median</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2825,6 +2830,11 @@
           <t>System Design Style</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3011,6 +3021,11 @@
       <c r="C120" t="inlineStr">
         <is>
           <t>Trees &amp; BSTs Views</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1098,6 +1098,11 @@
           <t>Strings Basics + Hashing</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3810,6 +3815,11 @@
           <t>Advanced</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4573,6 +4583,11 @@
       <c r="C191" t="inlineStr">
         <is>
           <t>Design &amp; Greedy</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -639,6 +639,11 @@
           <t>Frequency &amp; Majority</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1716,6 +1721,11 @@
           <t>Matrix-Based Search</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1951,6 +1961,11 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>Allocation Problems</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1643,6 +1643,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1660,6 +1665,11 @@
           <t>Rotated Arrays</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2308,6 +2318,11 @@
       <c r="C86" t="inlineStr">
         <is>
           <t>Advanced Pointers</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -815,6 +815,11 @@
           <t>Triplets &amp; Revision</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1003,6 +1008,11 @@
           <t>Greedy Stock</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1040,6 +1050,11 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>Advanced Patterns</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -881,6 +881,11 @@
           <t>Tricky Transformations</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2054,6 +2059,11 @@
           <t>Linked Lists Basics</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3032,6 +3042,11 @@
       <c r="C118" t="inlineStr">
         <is>
           <t>Trees &amp; BSTs Views</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1255,6 +1255,11 @@
           <t>Strings Two Pointers</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2785,6 +2790,11 @@
           <t>Interview-Classics</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4929,6 +4939,11 @@
       <c r="C204" t="inlineStr">
         <is>
           <t>Topological Sort</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/LeetCode_Roadmap_Questions.xlsx
+++ b/LeetCode_Roadmap_Questions.xlsx
@@ -1607,6 +1607,11 @@
           <t>Binary Search Essentials</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3316,6 +3321,11 @@
       <c r="C130" t="inlineStr">
         <is>
           <t>Balance &amp; Mirror</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
